--- a/capture.xlsx
+++ b/capture.xlsx
@@ -241,6 +241,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22802850"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="30518100"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -509,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/capture.xlsx
+++ b/capture.xlsx
@@ -317,6 +317,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="38061900"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -585,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="A223" sqref="A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/capture.xlsx
+++ b/capture.xlsx
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="A223" sqref="A223"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="H268" sqref="H268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/capture.xlsx
+++ b/capture.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\training-tyo\Desktop\test\capture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\training-tyo\Desktop\test\capture2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,6 +23,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -583,14 +587,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A227">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/capture.xlsx
+++ b/capture.xlsx
@@ -347,6 +347,120 @@
         <a:xfrm>
           <a:off x="0" y="38061900"/>
           <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="47663100"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>627714</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>94467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="57092850"/>
+          <a:ext cx="7485714" cy="6266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>627714</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>123059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="63607950"/>
+          <a:ext cx="7485714" cy="6123809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -623,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="H268" sqref="H268"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="L394" sqref="L394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/capture.xlsx
+++ b/capture.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\training-tyo\Desktop\test\capture2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\training-tyo\Desktop\test\capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,10 +23,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -313,6 +309,158 @@
         <a:xfrm>
           <a:off x="0" y="30518100"/>
           <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="38061900"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="47663100"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>627714</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>94467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="57092850"/>
+          <a:ext cx="7485714" cy="6266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>627714</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>123059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="63607950"/>
+          <a:ext cx="7485714" cy="6123809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -587,20 +735,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A227"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A228" sqref="A228"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="L394" sqref="L394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A227">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/capture.xlsx
+++ b/capture.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\training-tyo\Desktop\test\capture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\training-tyo\Desktop\test\capture2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -461,6 +461,44 @@
         <a:xfrm>
           <a:off x="0" y="63607950"/>
           <a:ext cx="7485714" cy="6123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132733</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>171236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="70123050"/>
+          <a:ext cx="4933333" cy="1714286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -737,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="L394" sqref="L394"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="I422" sqref="I422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/capture.xlsx
+++ b/capture.xlsx
@@ -461,6 +461,82 @@
         <a:xfrm>
           <a:off x="0" y="63607950"/>
           <a:ext cx="7485714" cy="6123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132733</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>171236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="70123050"/>
+          <a:ext cx="4933333" cy="1714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>421</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>463</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="72180450"/>
+          <a:ext cx="13009524" cy="7314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -737,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="L394" sqref="L394"/>
+    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
+      <selection activeCell="E469" sqref="E469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/capture.xlsx
+++ b/capture.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\training-tyo\Desktop\test\capture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\training-tyo\Desktop\test\capture2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -537,6 +537,44 @@
         <a:xfrm>
           <a:off x="0" y="72180450"/>
           <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>466</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>627714</xdr:colOff>
+      <xdr:row>508</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="79895700"/>
+          <a:ext cx="7485714" cy="7314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -813,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="E469" sqref="E469"/>
+    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="A467" sqref="A467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/capture.xlsx
+++ b/capture.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\training-tyo\Desktop\test\capture2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\training-tyo\Desktop\test\capture\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -575,6 +575,120 @@
         <a:xfrm>
           <a:off x="0" y="79895700"/>
           <a:ext cx="7485714" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>512</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>455771</xdr:colOff>
+      <xdr:row>545</xdr:row>
+      <xdr:rowOff>8817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="87782400"/>
+          <a:ext cx="11428571" cy="5666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>546</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>588</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="93611700"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>590</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>632</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="101155500"/>
+          <a:ext cx="13009524" cy="7314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -851,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467"/>
+    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
+      <selection activeCell="A591" sqref="A591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/capture.xlsx
+++ b/capture.xlsx
@@ -688,6 +688,82 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="101155500"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>635</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>677</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="108870750"/>
+          <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>679</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>721</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="116414550"/>
           <a:ext cx="13009524" cy="7314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -965,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
-      <selection activeCell="A591" sqref="A591"/>
+    <sheetView tabSelected="1" topLeftCell="A702" workbookViewId="0">
+      <selection activeCell="D725" sqref="D725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
